--- a/structure.xlsx
+++ b/structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nouri\Documents\GitHub\TSM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BFCA7B-9857-44DB-B05D-404FD663E5C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306061C1-397F-4530-BB82-8F3F8CF42D87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16425" yWindow="360" windowWidth="9975" windowHeight="16470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16425" yWindow="0" windowWidth="9975" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,19 +657,19 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
